--- a/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_31_8.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_31_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_0</t>
+          <t>model_31_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9966352631481199</v>
+        <v>0.9992134052123328</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.561535728109684</v>
+        <v>0.7258253818187608</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9969677010700347</v>
+        <v>0.9994072712265842</v>
       </c>
       <c r="E2" t="n">
-        <v>0.997580932356437</v>
+        <v>0.9995548439571903</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9973670092224108</v>
+        <v>0.9995333303509171</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4975773901086131</v>
+        <v>0.0004669566450848218</v>
       </c>
       <c r="H2" t="n">
-        <v>230.9199519481083</v>
+        <v>0.162761897079196</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3430117372628582</v>
+        <v>0.0003190818533539713</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4802062380935297</v>
+        <v>0.0002971273190456563</v>
       </c>
       <c r="K2" t="n">
-        <v>0.411609037640651</v>
+        <v>0.0003081070241136799</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2532481278527747</v>
+        <v>0.01439100056043837</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7053916572434161</v>
+        <v>0.02160917964858504</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003230147377805</v>
+        <v>1.00075513099616</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7354216404542993</v>
+        <v>0.02252912716339387</v>
       </c>
       <c r="P2" t="n">
-        <v>99.39600835294824</v>
+        <v>113.3385482833649</v>
       </c>
       <c r="Q2" t="n">
-        <v>159.1209237714901</v>
+        <v>173.0634637019068</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_1</t>
+          <t>model_31_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9967056664238428</v>
+        <v>0.999198466018551</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5622837207367741</v>
+        <v>0.7257099566344882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.997038573141222</v>
+        <v>0.9994018709245348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9976391034216604</v>
+        <v>0.9995459885795068</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9974295788602037</v>
+        <v>0.9995266553185642</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4871661515091554</v>
+        <v>0.0004758251958532377</v>
       </c>
       <c r="H3" t="n">
-        <v>231.0305651210226</v>
+        <v>0.1628304184546884</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3349947333912572</v>
+        <v>0.0003219889813084482</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4686587691869939</v>
+        <v>0.0003030379983967001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4018276785046316</v>
+        <v>0.0003125140481362177</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2505719541251706</v>
+        <v>0.01453587413641</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6979728873739691</v>
+        <v>0.02181341779394595</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003162560233111</v>
+        <v>1.000769472622191</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7276870381925391</v>
+        <v>0.02274206014943404</v>
       </c>
       <c r="P3" t="n">
-        <v>99.43830008111182</v>
+        <v>113.3009200135656</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.1632154996536</v>
+        <v>173.0258354321074</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_2</t>
+          <t>model_31_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.996774613073619</v>
+        <v>0.9991832045837765</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5630248371247335</v>
+        <v>0.725593382552705</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9971078290175165</v>
+        <v>0.9993963202737086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9976960019266933</v>
+        <v>0.999536842551455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9974907564165826</v>
+        <v>0.99951976976018</v>
       </c>
       <c r="G4" t="n">
-        <v>0.476970318799933</v>
+        <v>0.0004848850427950559</v>
       </c>
       <c r="H4" t="n">
-        <v>231.1401614354808</v>
+        <v>0.1628996218653732</v>
       </c>
       <c r="I4" t="n">
-        <v>0.327160552463821</v>
+        <v>0.000324977046056372</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4573639146889411</v>
+        <v>0.0003091426775060314</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3922639400667013</v>
+        <v>0.000317060066732713</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2479238006021215</v>
+        <v>0.01468213311178358</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6906303778432664</v>
+        <v>0.0220201054219787</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003096371449326</v>
+        <v>1.000784123599574</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7200319428300243</v>
+        <v>0.02295754689769452</v>
       </c>
       <c r="P4" t="n">
-        <v>99.48060202953585</v>
+        <v>113.2631974405731</v>
       </c>
       <c r="Q4" t="n">
-        <v>159.2055174480777</v>
+        <v>172.9881128591149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_3</t>
+          <t>model_31_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9968421051758146</v>
+        <v>0.999167603315032</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5637585282316684</v>
+        <v>0.7254757724283243</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9971754443891809</v>
+        <v>0.9993906388296649</v>
       </c>
       <c r="E5" t="n">
-        <v>0.99775157296054</v>
+        <v>0.9995273834197246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9975505101171394</v>
+        <v>0.9995126717470021</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4669895846320607</v>
+        <v>0.000494146629861543</v>
       </c>
       <c r="H5" t="n">
-        <v>231.2486596991505</v>
+        <v>0.1629694403156983</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3195119443826307</v>
+        <v>0.000328035520313917</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4463325749157478</v>
+        <v>0.0003154563432351238</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3829227895427573</v>
+        <v>0.0003217463533203291</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2453017827553156</v>
+        <v>0.0148297774151284</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6833663619406948</v>
+        <v>0.02222940912083681</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003031579031218</v>
+        <v>1.000799100817569</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7124586827318943</v>
+        <v>0.02317576108833141</v>
       </c>
       <c r="P5" t="n">
-        <v>99.52289664855404</v>
+        <v>113.2253565264742</v>
       </c>
       <c r="Q5" t="n">
-        <v>159.2478120670959</v>
+        <v>172.950271945016</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_4</t>
+          <t>model_31_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9969082269574704</v>
+        <v>0.9991516594126922</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5644864322404493</v>
+        <v>0.725356976085904</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9972415560936667</v>
+        <v>0.9993848145370398</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9978059846918352</v>
+        <v>0.9995176231392789</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9976089685438809</v>
+        <v>0.9995053642347587</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4572114935081615</v>
+        <v>0.0005036116190311081</v>
       </c>
       <c r="H6" t="n">
-        <v>231.3563021665656</v>
+        <v>0.1630399629562938</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3120334301817469</v>
+        <v>0.0003311708938079213</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4355313669119272</v>
+        <v>0.0003219710160308037</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3737841260206841</v>
+        <v>0.0003265709564532254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2427057230842263</v>
+        <v>0.01497895519898505</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6761741591544013</v>
+        <v>0.02244129272192465</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002968102120828</v>
+        <v>1.000814406963815</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7049602929830759</v>
+        <v>0.02339666501297707</v>
       </c>
       <c r="P6" t="n">
-        <v>99.56521841694143</v>
+        <v>113.187410368232</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2901338354833</v>
+        <v>172.9123257867739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_5</t>
+          <t>model_31_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.996972971292604</v>
+        <v>0.9991353779294465</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5652071172417816</v>
+        <v>0.7252371398133849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9973061791865541</v>
+        <v>0.9993788508054761</v>
       </c>
       <c r="E7" t="n">
-        <v>0.997859130817074</v>
+        <v>0.9995075489058804</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9976660974470138</v>
+        <v>0.9994978417916723</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4476370992187391</v>
+        <v>0.0005132770108092179</v>
       </c>
       <c r="H7" t="n">
-        <v>231.462877086935</v>
+        <v>0.1631111029443186</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3047233067834451</v>
+        <v>0.0003343813310358889</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4249813928596968</v>
+        <v>0.0003286952423094256</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3648533036873373</v>
+        <v>0.0003315374623272527</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2401363328171852</v>
+        <v>0.01512942997747291</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6690568729328913</v>
+        <v>0.02265561764351654</v>
       </c>
       <c r="N7" t="n">
-        <v>1.0029059475591</v>
+        <v>1.000830037187731</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6975400091523027</v>
+        <v>0.02362011419019488</v>
       </c>
       <c r="P7" t="n">
-        <v>99.60754484243751</v>
+        <v>113.1493897528943</v>
       </c>
       <c r="Q7" t="n">
-        <v>159.3324602609793</v>
+        <v>172.8743051714361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_6</t>
+          <t>model_31_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9970363854228673</v>
+        <v>0.9991187284447887</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5659217550671896</v>
+        <v>0.7251161406325758</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9973693074151684</v>
+        <v>0.999372726776063</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9979111163270946</v>
+        <v>0.9994971507913059</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9977219438272776</v>
+        <v>0.9994900862394451</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4382594156668009</v>
+        <v>0.000523160864122412</v>
       </c>
       <c r="H8" t="n">
-        <v>231.5685577507411</v>
+        <v>0.1631829332849393</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2975822814863241</v>
+        <v>0.0003376780609108959</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4146618111527519</v>
+        <v>0.0003356356488400709</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3561229750315204</v>
+        <v>0.0003366578727112712</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2375911097703123</v>
+        <v>0.01528153778793036</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6620116431504818</v>
+        <v>0.02287271003013006</v>
       </c>
       <c r="N8" t="n">
-        <v>1.002845069994047</v>
+        <v>1.000846020693003</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6901948493524199</v>
+        <v>0.02384644864914973</v>
       </c>
       <c r="P8" t="n">
-        <v>99.64988854143674</v>
+        <v>113.1112431232166</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.3748039599786</v>
+        <v>172.8361585417584</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_7</t>
+          <t>model_31_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9970984824303807</v>
+        <v>0.9991017237157549</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5666296346530499</v>
+        <v>0.7249940542841576</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9974309796337543</v>
+        <v>0.9993664865692899</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9979619330225327</v>
+        <v>0.9994864362784723</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9977765309000214</v>
+        <v>0.9994821217841815</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4290765082680295</v>
+        <v>0.0005332556058429001</v>
       </c>
       <c r="H9" t="n">
-        <v>231.6732390058731</v>
+        <v>0.163255409015216</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2906059591228059</v>
+        <v>0.0003410373321860361</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4045742494371514</v>
+        <v>0.0003427872410166144</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3475895108542305</v>
+        <v>0.0003419162061272021</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2350736446915959</v>
+        <v>0.01543504105295883</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6550393181084854</v>
+        <v>0.02309232785673415</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002785456866835</v>
+        <v>1.000862345232875</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6829256979986832</v>
+        <v>0.02407541606130393</v>
       </c>
       <c r="P9" t="n">
-        <v>99.69224007000771</v>
+        <v>113.0730193761401</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.4171554885496</v>
+        <v>172.7979347946819</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_8</t>
+          <t>model_31_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9971593070771285</v>
+        <v>0.9990843466504726</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5673313058493019</v>
+        <v>0.724870909344993</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9974912532446834</v>
+        <v>0.9993600540329146</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9980116205985489</v>
+        <v>0.9994753744642547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.997829889246301</v>
+        <v>0.999473917965699</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4200817576187724</v>
+        <v>0.0005435713824446077</v>
       </c>
       <c r="H10" t="n">
-        <v>231.777002164157</v>
+        <v>0.1633285131706885</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2837878463729094</v>
+        <v>0.0003445001396629902</v>
       </c>
       <c r="J10" t="n">
-        <v>0.394710827873812</v>
+        <v>0.0003501706456796422</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3392481304934595</v>
+        <v>0.0003473325731525591</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2325795941859881</v>
+        <v>0.01559002821835991</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6481371441437163</v>
+        <v>0.02331461735574075</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002727065205957</v>
+        <v>1.000879027215546</v>
       </c>
       <c r="O10" t="n">
-        <v>0.675729684198764</v>
+        <v>0.02430716888448594</v>
       </c>
       <c r="P10" t="n">
-        <v>99.73461185130328</v>
+        <v>113.0346990431652</v>
       </c>
       <c r="Q10" t="n">
-        <v>159.4595272698451</v>
+        <v>172.759614461707</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_9</t>
+          <t>model_31_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9972188526169253</v>
+        <v>0.9990666043572156</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5680264192177682</v>
+        <v>0.7247464695244312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9975501823510875</v>
+        <v>0.999353480154006</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9980601801585216</v>
+        <v>0.9994639715387129</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9978820357089876</v>
+        <v>0.9994654696868946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4112761613451273</v>
+        <v>0.0005541039741491214</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8797955506644</v>
+        <v>0.1634023860236943</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2771218231245722</v>
+        <v>0.0003480390356301987</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3850713274323748</v>
+        <v>0.0003577817311636239</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3310962009441912</v>
+        <v>0.0003529103390226722</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2301118734300027</v>
+        <v>0.01574651419290439</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6413081641029742</v>
+        <v>0.02353941320740858</v>
       </c>
       <c r="N11" t="n">
-        <v>1.002669901487752</v>
+        <v>1.000896059817073</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6686099803397501</v>
+        <v>0.02454153476095083</v>
       </c>
       <c r="P11" t="n">
-        <v>99.77698072942556</v>
+        <v>112.9963164197139</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.5018961479674</v>
+        <v>172.7212318382557</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_10</t>
+          <t>model_31_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9972771701077435</v>
+        <v>0.9990484697228267</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5687154335720483</v>
+        <v>0.7246210048521986</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9976077192864126</v>
+        <v>0.9993467602231229</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9981076786525261</v>
+        <v>0.9994522424667822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9979330119024594</v>
+        <v>0.9994567987145576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.40265216899255</v>
+        <v>0.000564869476497836</v>
       </c>
       <c r="H12" t="n">
-        <v>231.9816870147647</v>
+        <v>0.1634768672729232</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2706132813882733</v>
+        <v>0.0003516565553066224</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3756424579331076</v>
+        <v>0.0003656105088561383</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3231272167319844</v>
+        <v>0.0003586351327566851</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2276680131070737</v>
+        <v>0.01590455218121197</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6345487916563627</v>
+        <v>0.02376698290692018</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002613916696566</v>
+        <v>1.000913469066086</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6615628474142564</v>
+        <v>0.02477879257370487</v>
       </c>
       <c r="P12" t="n">
-        <v>99.81936438792245</v>
+        <v>112.957831737108</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.5442798064643</v>
+        <v>172.6827471556498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_11</t>
+          <t>model_31_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9973342911562402</v>
+        <v>0.9990299500503432</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5693980116487314</v>
+        <v>0.724494374974411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9976639868762404</v>
+        <v>0.9993398738915247</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9981541027214049</v>
+        <v>0.999440143093269</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9979828317254708</v>
+        <v>0.9994478739363363</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3942051065676491</v>
+        <v>0.0005758635540921822</v>
       </c>
       <c r="H13" t="n">
-        <v>232.082626681934</v>
+        <v>0.1635520402385038</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2642483272118506</v>
+        <v>0.0003553636529669668</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3664268712864997</v>
+        <v>0.0003736864509268019</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3153390050984015</v>
+        <v>0.0003645274955106212</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2252486692750923</v>
+        <v>0.01606404451956232</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6278575527678624</v>
+        <v>0.02399715720855665</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00255908049001</v>
+        <v>1.000931247951671</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6545867486334985</v>
+        <v>0.02501876587188848</v>
       </c>
       <c r="P13" t="n">
-        <v>99.86176786018318</v>
+        <v>112.9192796211735</v>
       </c>
       <c r="Q13" t="n">
-        <v>159.586683278725</v>
+        <v>172.6441950397153</v>
       </c>
     </row>
     <row r="14">
@@ -1182,437 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9973902239304364</v>
+        <v>0.9990110247145324</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5700743076396118</v>
+        <v>0.7243666224299288</v>
       </c>
       <c r="D14" t="n">
-        <v>0.997718899800064</v>
+        <v>0.999332809183397</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9981994640033734</v>
+        <v>0.9994276948702217</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9980315094931757</v>
+        <v>0.9994387107066173</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3859337661831692</v>
+        <v>0.000587098450961392</v>
       </c>
       <c r="H14" t="n">
-        <v>232.1826373540599</v>
+        <v>0.1636278796675311</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2580366119971066</v>
+        <v>0.0003591667755145999</v>
       </c>
       <c r="J14" t="n">
-        <v>0.357422257204221</v>
+        <v>0.0003819952388241524</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3077293281902794</v>
+        <v>0.0003705772899328022</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2228536266227998</v>
+        <v>0.01622513884735251</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6212356768434739</v>
+        <v>0.02423011454701344</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002505385026781</v>
+        <v>1.000949416274049</v>
       </c>
       <c r="O14" t="n">
-        <v>0.647682965741836</v>
+        <v>0.02526164068653155</v>
       </c>
       <c r="P14" t="n">
-        <v>99.90417902887927</v>
+        <v>112.8806360667109</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.6290944474211</v>
+        <v>172.6055514852528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_13</t>
+          <t>model_31_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9974449754484384</v>
+        <v>0.9989916882163509</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.570743709540769</v>
+        <v>0.7242376863763302</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9977725297408188</v>
+        <v>0.9993255789236057</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9982437754708243</v>
+        <v>0.9994148784992601</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9980790385107489</v>
+        <v>0.9994292813993525</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3778371100013704</v>
+        <v>0.0005985774315752203</v>
       </c>
       <c r="H15" t="n">
-        <v>232.2816285279835</v>
+        <v>0.1637044216786947</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2519700270157235</v>
+        <v>0.0003630590189788456</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3486260405520783</v>
+        <v>0.0003905497535953177</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3002992325933503</v>
+        <v>0.0003768027554339155</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2204833149302355</v>
+        <v>0.01638785423210658</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6146845613819908</v>
+        <v>0.02446584213909712</v>
       </c>
       <c r="N15" t="n">
-        <v>1.002452823569499</v>
+        <v>1.000967979312303</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6408529557324791</v>
+        <v>0.02550740369023362</v>
       </c>
       <c r="P15" t="n">
-        <v>99.94658420432022</v>
+        <v>112.8419093305382</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.671499622862</v>
+        <v>172.56682474908</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_14</t>
+          <t>model_31_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9974986051157321</v>
+        <v>0.9989719403689357</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.571407980420606</v>
+        <v>0.7241075634758734</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9978249613298706</v>
+        <v>0.999318179808296</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9982871282848782</v>
+        <v>0.9994017016788115</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9981255372098321</v>
+        <v>0.9994195998974689</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3699063531371416</v>
+        <v>0.0006103006068634967</v>
       </c>
       <c r="H16" t="n">
-        <v>232.379860926315</v>
+        <v>0.1637816682534224</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2460389988211083</v>
+        <v>0.0003670421619138771</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3400201250445128</v>
+        <v>0.0003993448567882486</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2930302041774112</v>
+        <v>0.0003831947261570338</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2181363324288301</v>
+        <v>0.01655210747857103</v>
       </c>
       <c r="M16" t="n">
-        <v>0.608199270911386</v>
+        <v>0.02470426292896626</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002401339088897</v>
+        <v>1.000986937245822</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6340915730201387</v>
+        <v>0.02575597454672656</v>
       </c>
       <c r="P16" t="n">
-        <v>99.98901081001667</v>
+        <v>112.8031178480903</v>
       </c>
       <c r="Q16" t="n">
-        <v>159.7139262285585</v>
+        <v>172.5280332666321</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_15</t>
+          <t>model_31_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9975511443201396</v>
+        <v>0.9989517798654562</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5720662405673964</v>
+        <v>0.7239763082875877</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9978761915431058</v>
+        <v>0.9993105988717378</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9983295047579375</v>
+        <v>0.9993881352643532</v>
       </c>
       <c r="F17" t="n">
-        <v>0.998170978028538</v>
+        <v>0.9994096570221161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3621368539583657</v>
+        <v>0.0006222687526172308</v>
       </c>
       <c r="H17" t="n">
-        <v>232.4772044572569</v>
+        <v>0.1638595870031177</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2402438694990887</v>
+        <v>0.0003711231841210766</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3316080218254875</v>
+        <v>0.0004084000014327527</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2859265516252165</v>
+        <v>0.0003897592622096916</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2158123571621012</v>
+        <v>0.01671788880287766</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6017780770004552</v>
+        <v>0.02494531524389361</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002350901452666</v>
+        <v>1.001006291329162</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6273970155907156</v>
+        <v>0.02600728895774745</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0314661779807</v>
+        <v>112.7642769607625</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.7563815965226</v>
+        <v>172.4891923793043</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_16</t>
+          <t>model_31_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9976025697327814</v>
+        <v>0.9989311726872285</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5727183531926892</v>
+        <v>0.7238438885680454</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9979262050386681</v>
+        <v>0.9993028320087601</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9983708922642262</v>
+        <v>0.9993742019014316</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9982153639152953</v>
+        <v>0.9993994441951728</v>
       </c>
       <c r="G18" t="n">
-        <v>0.35453206234048</v>
+        <v>0.000634502063796941</v>
       </c>
       <c r="H18" t="n">
-        <v>232.5736388925289</v>
+        <v>0.1639381970688721</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2345863745107507</v>
+        <v>0.000375304295524452</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3233922372227571</v>
+        <v>0.0004177000723564177</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2789878140160638</v>
+        <v>0.0003965020270830222</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2135128089170837</v>
+        <v>0.01688534820868608</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5954259503418372</v>
+        <v>0.02518932440135982</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00230153305653</v>
+        <v>1.001026074220261</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6207744657495253</v>
+        <v>0.02626168609021559</v>
       </c>
       <c r="P18" t="n">
-        <v>100.073912986524</v>
+        <v>112.7253400363601</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.7988284050658</v>
+        <v>172.450255454902</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_17</t>
+          <t>model_31_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9976529452394852</v>
+        <v>0.9989101286318929</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5733649055444299</v>
+        <v>0.7237103561731992</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9979751105899893</v>
+        <v>0.9992948996028307</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9984113910504275</v>
+        <v>0.9993598545542376</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9982587615735234</v>
+        <v>0.9993889549813656</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3470825308452866</v>
+        <v>0.0006469947241000449</v>
       </c>
       <c r="H19" t="n">
-        <v>232.6692510743755</v>
+        <v>0.1640174676667519</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2290542094742818</v>
+        <v>0.0003795745231547922</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3153528713865424</v>
+        <v>0.0004272764644463646</v>
       </c>
       <c r="K19" t="n">
-        <v>0.272203563766821</v>
+        <v>0.0004034272695062312</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2112343954636949</v>
+        <v>0.01705447003689364</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5891371070008123</v>
+        <v>0.0254360909752274</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002253172570094</v>
+        <v>1.001046276513383</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6142178933277727</v>
+        <v>0.02651895802800995</v>
       </c>
       <c r="P19" t="n">
-        <v>100.1163853725246</v>
+        <v>112.686344835803</v>
       </c>
       <c r="Q19" t="n">
-        <v>159.8413007910664</v>
+        <v>172.4112602543448</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_18</t>
+          <t>model_31_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.997702267167892</v>
+        <v>0.9988886355873761</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5740054924229798</v>
+        <v>0.7235756701596449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9980228636999839</v>
+        <v>0.9992867709250673</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9984509541555102</v>
+        <v>0.999345133078765</v>
       </c>
       <c r="F20" t="n">
-        <v>0.998301148301435</v>
+        <v>0.9993781986387927</v>
       </c>
       <c r="G20" t="n">
-        <v>0.339788802541374</v>
+        <v>0.0006597539237764023</v>
       </c>
       <c r="H20" t="n">
-        <v>232.7639810818614</v>
+        <v>0.1640974231025306</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2236524078718471</v>
+        <v>0.0003839504091963914</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3074992464953268</v>
+        <v>0.0004371025751106833</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2655773497926169</v>
+        <v>0.000410528877050186</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2089798128908439</v>
+        <v>0.01722520040074521</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5829140610256146</v>
+        <v>0.02568567545883118</v>
       </c>
       <c r="N20" t="n">
-        <v>1.002205823518824</v>
+        <v>1.001066909836119</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6077299194019298</v>
+        <v>0.02677916783979184</v>
       </c>
       <c r="P20" t="n">
-        <v>100.1588620467466</v>
+        <v>112.6472872704599</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.8837774652884</v>
+        <v>172.3722026890018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_31_8_19</t>
+          <t>model_31_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9977505605193308</v>
+        <v>0.9988666922062709</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.574640095842577</v>
+        <v>0.7234397380441686</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9980695027883411</v>
+        <v>0.9992784462701865</v>
       </c>
       <c r="E21" t="n">
-        <v>0.998489588902286</v>
+        <v>0.9993300033379142</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9983425622591613</v>
+        <v>0.9993671601000936</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3326471802314355</v>
+        <v>0.0006727804627051509</v>
       </c>
       <c r="H21" t="n">
-        <v>232.8578262552516</v>
+        <v>0.164178118278239</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2183766236925134</v>
+        <v>0.0003884317949955491</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2998299089064109</v>
+        <v>0.0004472011897638295</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2591032066130464</v>
+        <v>0.0004178167975648924</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2067480731625546</v>
+        <v>0.01739752602744856</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5767557370598367</v>
+        <v>0.02593801192661363</v>
       </c>
       <c r="N21" t="n">
-        <v>1.002159461901442</v>
+        <v>1.00108797548198</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6013094228354406</v>
+        <v>0.02704224679341629</v>
       </c>
       <c r="P21" t="n">
-        <v>100.2013457390261</v>
+        <v>112.6081829770252</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.926261157568</v>
+        <v>172.333098395567</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_31_8_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9988442790085587</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7233025577772112</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9992699253847844</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9993144348736508</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9993558171054153</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0006860859050669143</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1642595544105838</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0003930188169662068</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0004575926381626233</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.000425305727564415</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01757158528728908</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.02619324159142801</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.001109492151784</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.02730834211346006</v>
+      </c>
+      <c r="P22" t="n">
+        <v>112.5690154240669</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>172.2939308426087</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_31_8_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9988213797043799</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7231642416758624</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9992612106507238</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9992984645210249</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9993441882061566</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0006996799212258412</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.164341664823289</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0003977101928876065</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.00046825233409757</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0004329834189492399</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01774735780001478</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0264514634987526</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.001131475483795</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0275775570619725</v>
+      </c>
+      <c r="P23" t="n">
+        <v>112.5297751657713</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>172.2546905843131</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_31_8_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.998798005096048</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7230246559833451</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.999252305910618</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.999282074508605</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9993322788805756</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0007135560984621321</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.1644245289201552</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0004025038541776686</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0004791921394267206</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.000440846254835676</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.01792481091883911</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.02671247084157757</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.001153915107794</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.02784967602774121</v>
+      </c>
+      <c r="P24" t="n">
+        <v>112.4904989996087</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>172.2154144181505</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_31_8_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.998774129766325</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7228839169703107</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9992431884521995</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9992652550349402</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9993200505231995</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0007277295255462571</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1645080776779012</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0004074120274611779</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0004904185963028897</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0004489197235267777</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01810403491736428</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.02697646243572824</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.001176835424328</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.02812490629059282</v>
+      </c>
+      <c r="P25" t="n">
+        <v>112.4511622192907</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>172.1760776378325</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_31_8_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9987497522675516</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7227419322988424</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9992338469860589</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9992479836413002</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.999307521296402</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0007422010618712471</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1645923659123032</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.000412440790131148</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0005019466952051367</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.0004571918337671125</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.01828492962976377</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.02724336730052376</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.00120023782315</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.02840317384805191</v>
+      </c>
+      <c r="P26" t="n">
+        <v>112.4117807572622</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>172.136696175804</v>
       </c>
     </row>
   </sheetData>
